--- a/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
+++ b/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>70.37</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.56</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006138</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安价值优选股票</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.51</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>006138</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>国联安价值优选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.96</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,25 +672,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006138</t>
+          <t>257010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国联安价值优选股票</t>
+          <t>国联安小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5729</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>257010</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安小盘精选混合</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>74.19</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.84</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.15</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>42.62</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>006138</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>国联安价值优选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -772,15 +872,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>20.40</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.23</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -800,15 +910,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>20.40</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.23</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
+++ b/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1793</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
+++ b/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
+++ b/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
+++ b/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.73</v>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6039</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.16</v>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.87</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1802,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
+++ b/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.74</v>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.73</v>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1786,14 +1851,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.16</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -1802,14 +1973,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.87</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="6">
@@ -1818,13 +1989,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
+++ b/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1946,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4868</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
       </c>
     </row>
     <row r="3">
@@ -1941,14 +1984,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.74</v>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1957,14 +2022,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
@@ -1973,14 +2144,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.16</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6">
@@ -1989,14 +2160,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.87</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="7">
@@ -2005,13 +2176,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
+++ b/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.16</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.87</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>74.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4868</t>
+          <t>0.4998</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>159617</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>华夏中证智选500价值稳健策略ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36.36</t>
+          <t>97.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0794</t>
+          <t>0.0440</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -742,26 +759,140 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0301</t>
+          <t>0.0332</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -836,26 +967,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.36</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5536</t>
+          <t>0.4868</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -874,22 +1005,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.99</t>
+          <t>36.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0902</t>
+          <t>0.0794</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -912,26 +1043,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0301</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1006,22 +1137,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.97</t>
+          <t>74.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6039</t>
+          <t>0.5536</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1044,26 +1175,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>32.40</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0985</t>
+          <t>0.0902</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1082,26 +1213,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0345</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1110,6 +1241,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6039</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1355,7 +1656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1715,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2037,7 +2338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
+++ b/数据整理/stocks/A股/深证主板/000028-国药一致.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.61</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2.16</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.87</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -616,7 +633,689 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7207</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011876</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011877</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -893,176 +1592,6 @@
       </c>
       <c r="H7" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4868</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0794</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006138</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安价值优选股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1137,26 +1666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.36</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5536</t>
+          <t>0.4868</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1175,22 +1704,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.99</t>
+          <t>36.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0902</t>
+          <t>0.0794</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1213,26 +1742,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0301</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1307,22 +1836,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.97</t>
+          <t>74.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6039</t>
+          <t>0.5536</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1345,26 +1874,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>32.40</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0985</t>
+          <t>0.0902</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1383,26 +1912,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0345</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1411,6 +1940,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6039</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1656,7 +2355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2016,7 +2715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2336,174 +3035,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5443</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>39.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1973</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006138</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安价值优选股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>